--- a/data/FFN_History_data.xlsx
+++ b/data/FFN_History_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devin\Documents\Python Scripts\FFN_History\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20156579-19BC-46A8-AE1B-61BD6112B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9C7143-E270-461A-A51C-838DE5C76EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26595" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="7" r:id="rId1"/>
@@ -723,9 +723,9 @@
   </sheetPr>
   <dimension ref="A1:KN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/FFN_History_data.xlsx
+++ b/data/FFN_History_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devin\Documents\Python Scripts\FFN_History\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D6FC73-8707-4DBB-B972-DA86D88A77AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F956E9A-4904-4F90-987C-CA516470F818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="120">
   <si>
     <t>Double</t>
   </si>
@@ -389,6 +389,12 @@
   <si>
     <t>Jorge</t>
   </si>
+  <si>
+    <t>NHL Predict The Pick</t>
+  </si>
+  <si>
+    <t>NHL Bracket Challenge</t>
+  </si>
 </sst>
 </file>
 
@@ -730,8 +736,8 @@
   <dimension ref="A1:KN1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M477" sqref="M477"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -61570,25 +61576,25 @@
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D286" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E286" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F286" s="1">
         <v>1</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H286" s="1">
         <v>1</v>
@@ -61605,25 +61611,25 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D287" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E287" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F287" s="1">
         <v>2</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H287" s="1">
         <v>1</v>
@@ -61646,19 +61652,19 @@
         <v>3</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D288" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E288" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F288" s="1">
         <v>3</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H288" s="1">
         <v>1</v>
@@ -61675,25 +61681,25 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D289" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E289" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F289" s="1">
         <v>4</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H289" s="1">
         <v>1</v>
@@ -61710,25 +61716,25 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D290" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E290" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F290" s="1">
         <v>5</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H290" s="1">
         <v>1</v>
@@ -61745,25 +61751,25 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D291" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E291" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F291" s="1">
         <v>6</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H291" s="1">
         <v>1</v>
@@ -61780,25 +61786,25 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D292" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E292" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F292" s="1">
         <v>7</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H292" s="1">
         <v>1</v>
@@ -61815,25 +61821,25 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D293" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E293" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F293" s="1">
         <v>8</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H293" s="1">
         <v>1</v>
@@ -61850,10 +61856,10 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>31</v>
@@ -61865,7 +61871,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G294" s="3" t="s">
         <v>86</v>
@@ -61885,10 +61891,10 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>31</v>
@@ -61900,7 +61906,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>86</v>
@@ -61920,10 +61926,10 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>31</v>
@@ -61935,7 +61941,7 @@
         <v>1</v>
       </c>
       <c r="F296" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G296" s="3" t="s">
         <v>86</v>
@@ -61955,10 +61961,10 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>31</v>
@@ -61970,7 +61976,7 @@
         <v>1</v>
       </c>
       <c r="F297" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G297" s="3" t="s">
         <v>86</v>
@@ -61990,22 +61996,22 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D298" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E298" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F298" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>86</v>
@@ -62025,22 +62031,22 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D299" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E299" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F299" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G299" s="3" t="s">
         <v>86</v>
@@ -62060,22 +62066,22 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D300" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E300" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F300" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>86</v>
@@ -62095,22 +62101,22 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D301" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E301" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F301" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G301" s="3" t="s">
         <v>86</v>
@@ -62130,22 +62136,22 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D302" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E302" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F302" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G302" s="3" t="s">
         <v>86</v>
@@ -62165,22 +62171,22 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D303" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E303" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F303" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>86</v>
@@ -62200,22 +62206,22 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D304" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E304" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F304" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>86</v>
@@ -62235,22 +62241,22 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D305" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E305" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F305" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>86</v>
@@ -62270,10 +62276,10 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>31</v>
@@ -62285,7 +62291,7 @@
         <v>2</v>
       </c>
       <c r="F306" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G306" s="3" t="s">
         <v>86</v>
@@ -62305,10 +62311,10 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>31</v>
@@ -62320,7 +62326,7 @@
         <v>2</v>
       </c>
       <c r="F307" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G307" s="3" t="s">
         <v>86</v>
@@ -62340,22 +62346,22 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="B308" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D308" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E308" s="1">
         <v>2</v>
       </c>
-      <c r="C308" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D308" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E308" s="1">
-        <v>1</v>
-      </c>
       <c r="F308" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G308" s="3" t="s">
         <v>86</v>
@@ -62375,22 +62381,22 @@
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D309" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E309" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F309" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G309" s="3" t="s">
         <v>86</v>
@@ -62410,22 +62416,22 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D310" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E310" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F310" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G310" s="3" t="s">
         <v>86</v>
@@ -62445,22 +62451,22 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D311" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E311" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F311" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G311" s="3" t="s">
         <v>86</v>
@@ -62480,22 +62486,22 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D312" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E312" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F312" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G312" s="3" t="s">
         <v>86</v>
@@ -62515,22 +62521,22 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D313" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E313" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F313" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G313" s="3" t="s">
         <v>86</v>
@@ -62550,22 +62556,22 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D314" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E314" s="1">
         <v>2</v>
       </c>
       <c r="F314" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G314" s="3" t="s">
         <v>86</v>
@@ -62591,16 +62597,16 @@
         <v>3</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D315" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E315" s="1">
         <v>2</v>
       </c>
       <c r="F315" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G315" s="3" t="s">
         <v>86</v>
@@ -62620,22 +62626,22 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D316" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E316" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F316" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G316" s="3" t="s">
         <v>86</v>
@@ -62655,22 +62661,22 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D317" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E317" s="1">
+        <v>1</v>
+      </c>
+      <c r="F317" s="1">
         <v>2</v>
-      </c>
-      <c r="F317" s="1">
-        <v>4</v>
       </c>
       <c r="G317" s="3" t="s">
         <v>86</v>
@@ -62690,22 +62696,22 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D318" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E318" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F318" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G318" s="3" t="s">
         <v>86</v>
@@ -62725,22 +62731,22 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D319" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E319" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F319" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G319" s="3" t="s">
         <v>86</v>
@@ -62760,22 +62766,22 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D320" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E320" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F320" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G320" s="3" t="s">
         <v>86</v>
@@ -62795,13 +62801,13 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D321" s="1">
         <v>2022</v>
@@ -62810,7 +62816,7 @@
         <v>1</v>
       </c>
       <c r="F321" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>86</v>
@@ -62836,16 +62842,16 @@
         <v>5</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D322" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E322" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F322" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G322" s="3" t="s">
         <v>86</v>
@@ -62865,19 +62871,19 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D323" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E323" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F323" s="1">
         <v>2</v>
@@ -62900,22 +62906,22 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D324" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E324" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F324" s="1">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>86</v>
@@ -62935,22 +62941,22 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D325" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E325" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F325" s="1">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="G325" s="3" t="s">
         <v>86</v>
@@ -62970,22 +62976,22 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D326" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E326" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F326" s="1">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="G326" s="3" t="s">
         <v>86</v>
@@ -63005,22 +63011,22 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D327" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E327" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F327" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G327" s="3" t="s">
         <v>86</v>
@@ -63046,16 +63052,16 @@
         <v>7</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D328" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E328" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F328" s="1">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G328" s="3" t="s">
         <v>86</v>
@@ -63075,10 +63081,10 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>94</v>
@@ -63090,7 +63096,7 @@
         <v>1</v>
       </c>
       <c r="F329" s="1">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="G329" s="3" t="s">
         <v>86</v>
@@ -63110,22 +63116,22 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D330" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E330" s="1">
+        <v>1</v>
+      </c>
+      <c r="F330" s="1">
         <v>2</v>
-      </c>
-      <c r="F330" s="1">
-        <v>1</v>
       </c>
       <c r="G330" s="3" t="s">
         <v>86</v>
@@ -63145,19 +63151,19 @@
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D331" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E331" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F331" s="1">
         <v>2</v>
@@ -63180,22 +63186,22 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D332" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E332" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F332" s="1">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="G332" s="3" t="s">
         <v>86</v>
@@ -63215,22 +63221,22 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D333" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E333" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F333" s="1">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="G333" s="3" t="s">
         <v>86</v>
@@ -63250,22 +63256,22 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D334" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E334" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F334" s="1">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="G334" s="3" t="s">
         <v>86</v>
@@ -63285,19 +63291,19 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D335" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E335" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F335" s="1">
         <v>6.5</v>
@@ -63320,19 +63326,19 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D336" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E336" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F336" s="1">
         <v>6.5</v>
@@ -63355,22 +63361,22 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D337" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E337" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F337" s="1">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="G337" s="3" t="s">
         <v>86</v>
@@ -63390,10 +63396,10 @@
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>94</v>
@@ -63405,7 +63411,7 @@
         <v>2</v>
       </c>
       <c r="F338" s="1">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="G338" s="3" t="s">
         <v>86</v>
@@ -63425,22 +63431,22 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D339" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E339" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F339" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G339" s="3" t="s">
         <v>86</v>
@@ -63460,22 +63466,22 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B340" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D340" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E340" s="1">
         <v>2</v>
       </c>
-      <c r="C340" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D340" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E340" s="1">
-        <v>1</v>
-      </c>
       <c r="F340" s="1">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G340" s="3" t="s">
         <v>86</v>
@@ -63495,22 +63501,22 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D341" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E341" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F341" s="1">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>86</v>
@@ -63530,19 +63536,19 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D342" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E342" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F342" s="1">
         <v>4</v>
@@ -63565,22 +63571,22 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D343" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E343" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F343" s="1">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>86</v>
@@ -63600,22 +63606,22 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D344" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E344" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F344" s="1">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="G344" s="3" t="s">
         <v>86</v>
@@ -63635,22 +63641,22 @@
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D345" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E345" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F345" s="1">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="G345" s="3" t="s">
         <v>86</v>
@@ -63670,22 +63676,22 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D346" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E346" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F346" s="1">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>86</v>
@@ -63705,22 +63711,22 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D347" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E347" s="1">
         <v>1</v>
       </c>
       <c r="F347" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G347" s="3" t="s">
         <v>86</v>
@@ -63740,22 +63746,22 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D348" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E348" s="1">
         <v>1</v>
       </c>
       <c r="F348" s="1">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G348" s="3" t="s">
         <v>86</v>
@@ -63775,22 +63781,22 @@
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D349" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E349" s="1">
         <v>1</v>
       </c>
       <c r="F349" s="1">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G349" s="3" t="s">
         <v>86</v>
@@ -63810,22 +63816,22 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D350" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E350" s="1">
         <v>1</v>
       </c>
       <c r="F350" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G350" s="3" t="s">
         <v>86</v>
@@ -63845,22 +63851,22 @@
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D351" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E351" s="1">
         <v>1</v>
       </c>
       <c r="F351" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G351" s="3" t="s">
         <v>86</v>
@@ -63880,10 +63886,10 @@
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>74</v>
@@ -63895,7 +63901,7 @@
         <v>1</v>
       </c>
       <c r="F352" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>86</v>
@@ -63915,22 +63921,22 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D353" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E353" s="1">
+        <v>1</v>
+      </c>
+      <c r="F353" s="1">
         <v>2</v>
-      </c>
-      <c r="F353" s="1">
-        <v>1</v>
       </c>
       <c r="G353" s="3" t="s">
         <v>86</v>
@@ -63950,22 +63956,22 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D354" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E354" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F354" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G354" s="3" t="s">
         <v>86</v>
@@ -63985,22 +63991,22 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D355" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E355" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F355" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G355" s="3" t="s">
         <v>86</v>
@@ -64020,22 +64026,22 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D356" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E356" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F356" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G356" s="3" t="s">
         <v>86</v>
@@ -64055,22 +64061,22 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D357" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E357" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F357" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G357" s="3" t="s">
         <v>86</v>
@@ -64090,19 +64096,19 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D358" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E358" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F358" s="1">
         <v>6</v>
@@ -64125,22 +64131,22 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D359" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E359" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F359" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G359" s="3" t="s">
         <v>86</v>
@@ -64160,22 +64166,22 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D360" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E360" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F360" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G360" s="3" t="s">
         <v>86</v>
@@ -64195,10 +64201,10 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>74</v>
@@ -64210,7 +64216,7 @@
         <v>2</v>
       </c>
       <c r="F361" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G361" s="3" t="s">
         <v>86</v>
@@ -64230,10 +64236,10 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>74</v>
@@ -64245,7 +64251,7 @@
         <v>2</v>
       </c>
       <c r="F362" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G362" s="3" t="s">
         <v>86</v>
@@ -64274,13 +64280,13 @@
         <v>74</v>
       </c>
       <c r="D363" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E363" s="1">
+        <v>2</v>
+      </c>
+      <c r="F363" s="1">
         <v>3</v>
-      </c>
-      <c r="F363" s="1">
-        <v>1</v>
       </c>
       <c r="G363" s="3" t="s">
         <v>86</v>
@@ -64309,13 +64315,13 @@
         <v>74</v>
       </c>
       <c r="D364" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E364" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F364" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G364" s="3" t="s">
         <v>86</v>
@@ -64335,22 +64341,22 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D365" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E365" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F365" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G365" s="3" t="s">
         <v>86</v>
@@ -64370,22 +64376,22 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D366" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E366" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F366" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G366" s="3" t="s">
         <v>86</v>
@@ -64405,22 +64411,22 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D367" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E367" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F367" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G367" s="3" t="s">
         <v>86</v>
@@ -64440,22 +64446,22 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D368" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E368" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F368" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G368" s="3" t="s">
         <v>86</v>
@@ -64475,22 +64481,22 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D369" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E369" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F369" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G369" s="3" t="s">
         <v>86</v>
@@ -64510,22 +64516,22 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D370" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E370" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F370" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G370" s="3" t="s">
         <v>86</v>
@@ -64545,10 +64551,10 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>74</v>
@@ -64560,7 +64566,7 @@
         <v>3</v>
       </c>
       <c r="F371" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G371" s="3" t="s">
         <v>86</v>
@@ -64580,10 +64586,10 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>74</v>
@@ -64595,7 +64601,7 @@
         <v>3</v>
       </c>
       <c r="F372" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G372" s="3" t="s">
         <v>86</v>
@@ -64615,10 +64621,10 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>74</v>
@@ -64630,7 +64636,7 @@
         <v>3</v>
       </c>
       <c r="F373" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G373" s="3" t="s">
         <v>86</v>
@@ -64650,25 +64656,25 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D374" s="1">
         <v>2023</v>
       </c>
       <c r="E374" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F374" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H374" s="1">
         <v>1</v>
@@ -64685,25 +64691,25 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D375" s="1">
         <v>2023</v>
       </c>
       <c r="E375" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F375" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H375" s="1">
         <v>1</v>
@@ -64720,25 +64726,25 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D376" s="1">
         <v>2023</v>
       </c>
       <c r="E376" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F376" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H376" s="1">
         <v>1</v>
@@ -64755,25 +64761,25 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D377" s="1">
         <v>2023</v>
       </c>
       <c r="E377" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F377" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H377" s="1">
         <v>1</v>
@@ -64790,25 +64796,25 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D378" s="1">
         <v>2023</v>
       </c>
       <c r="E378" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F378" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H378" s="1">
         <v>1</v>
@@ -64825,25 +64831,25 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D379" s="1">
         <v>2023</v>
       </c>
       <c r="E379" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F379" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H379" s="1">
         <v>1</v>
@@ -64860,25 +64866,25 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D380" s="1">
         <v>2023</v>
       </c>
       <c r="E380" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F380" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H380" s="1">
         <v>1</v>
@@ -64895,25 +64901,25 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D381" s="1">
         <v>2023</v>
       </c>
       <c r="E381" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F381" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H381" s="1">
         <v>1</v>
@@ -64930,10 +64936,10 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>96</v>
@@ -64945,7 +64951,7 @@
         <v>1</v>
       </c>
       <c r="F382" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G382" s="3" t="s">
         <v>87</v>
@@ -64965,22 +64971,22 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D383" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E383" s="1">
+        <v>1</v>
+      </c>
+      <c r="F383" s="1">
         <v>2</v>
-      </c>
-      <c r="F383" s="1">
-        <v>1</v>
       </c>
       <c r="G383" s="3" t="s">
         <v>87</v>
@@ -65000,22 +65006,22 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D384" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E384" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F384" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G384" s="3" t="s">
         <v>87</v>
@@ -65035,22 +65041,22 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D385" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E385" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F385" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G385" s="3" t="s">
         <v>87</v>
@@ -65070,22 +65076,22 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D386" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E386" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F386" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G386" s="3" t="s">
         <v>87</v>
@@ -65105,22 +65111,22 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D387" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E387" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F387" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G387" s="3" t="s">
         <v>87</v>
@@ -65140,19 +65146,19 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D388" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E388" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F388" s="1">
         <v>6</v>
@@ -65175,22 +65181,22 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D389" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E389" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F389" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>87</v>
@@ -65210,22 +65216,22 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D390" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E390" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F390" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>87</v>
@@ -65245,10 +65251,10 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>96</v>
@@ -65260,7 +65266,7 @@
         <v>2</v>
       </c>
       <c r="F391" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G391" s="3" t="s">
         <v>87</v>
@@ -65280,10 +65286,10 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>96</v>
@@ -65295,7 +65301,7 @@
         <v>2</v>
       </c>
       <c r="F392" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G392" s="3" t="s">
         <v>87</v>
@@ -65315,10 +65321,10 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>96</v>
@@ -65330,7 +65336,7 @@
         <v>2</v>
       </c>
       <c r="F393" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G393" s="3" t="s">
         <v>87</v>
@@ -65350,10 +65356,10 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>96</v>
@@ -65365,7 +65371,7 @@
         <v>2</v>
       </c>
       <c r="F394" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G394" s="3" t="s">
         <v>87</v>
@@ -65385,10 +65391,10 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>96</v>
@@ -65400,7 +65406,7 @@
         <v>2</v>
       </c>
       <c r="F395" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G395" s="3" t="s">
         <v>87</v>
@@ -65420,10 +65426,10 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>96</v>
@@ -65435,7 +65441,7 @@
         <v>2</v>
       </c>
       <c r="F396" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G396" s="3" t="s">
         <v>87</v>
@@ -65455,10 +65461,10 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>96</v>
@@ -65470,7 +65476,7 @@
         <v>2</v>
       </c>
       <c r="F397" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G397" s="3" t="s">
         <v>87</v>
@@ -65490,10 +65496,10 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>96</v>
@@ -65505,7 +65511,7 @@
         <v>2</v>
       </c>
       <c r="F398" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G398" s="3" t="s">
         <v>87</v>
@@ -65525,10 +65531,10 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>96</v>
@@ -65540,7 +65546,7 @@
         <v>2</v>
       </c>
       <c r="F399" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G399" s="3" t="s">
         <v>87</v>
@@ -65560,10 +65566,10 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>96</v>
@@ -65575,7 +65581,7 @@
         <v>2</v>
       </c>
       <c r="F400" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G400" s="3" t="s">
         <v>87</v>
@@ -65595,10 +65601,10 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>96</v>
@@ -65610,7 +65616,7 @@
         <v>2</v>
       </c>
       <c r="F401" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G401" s="3" t="s">
         <v>87</v>
@@ -65630,10 +65636,10 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>96</v>
@@ -65645,7 +65651,7 @@
         <v>2</v>
       </c>
       <c r="F402" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G402" s="3" t="s">
         <v>87</v>
@@ -65665,10 +65671,10 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>96</v>
@@ -65680,7 +65686,7 @@
         <v>2</v>
       </c>
       <c r="F403" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G403" s="3" t="s">
         <v>87</v>
@@ -65700,22 +65706,22 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D404" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E404" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F404" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G404" s="3" t="s">
         <v>87</v>
@@ -65741,16 +65747,16 @@
         <v>1</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D405" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E405" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F405" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G405" s="3" t="s">
         <v>87</v>
@@ -65770,22 +65776,22 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D406" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E406" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F406" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G406" s="3" t="s">
         <v>87</v>
@@ -65805,22 +65811,22 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D407" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E407" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F407" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G407" s="3" t="s">
         <v>87</v>
@@ -65846,16 +65852,16 @@
         <v>0</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D408" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E408" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F408" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G408" s="3" t="s">
         <v>87</v>
@@ -65875,22 +65881,22 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D409" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E409" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F409" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G409" s="3" t="s">
         <v>87</v>
@@ -65910,22 +65916,22 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D410" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E410" s="1">
         <v>2</v>
       </c>
-      <c r="C410" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D410" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E410" s="1">
-        <v>1</v>
-      </c>
       <c r="F410" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G410" s="3" t="s">
         <v>87</v>
@@ -65945,22 +65951,22 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D411" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E411" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F411" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G411" s="3" t="s">
         <v>87</v>
@@ -65980,10 +65986,10 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>32</v>
@@ -65995,7 +66001,7 @@
         <v>1</v>
       </c>
       <c r="F412" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G412" s="3" t="s">
         <v>87</v>
@@ -66015,10 +66021,10 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>32</v>
@@ -66030,7 +66036,7 @@
         <v>1</v>
       </c>
       <c r="F413" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G413" s="3" t="s">
         <v>87</v>
@@ -66050,10 +66056,10 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>32</v>
@@ -66065,7 +66071,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="1">
-        <v>11.5</v>
+        <v>3</v>
       </c>
       <c r="G414" s="3" t="s">
         <v>87</v>
@@ -66085,10 +66091,10 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>32</v>
@@ -66100,7 +66106,7 @@
         <v>1</v>
       </c>
       <c r="F415" s="1">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="G415" s="3" t="s">
         <v>87</v>
@@ -66120,13 +66126,13 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D416" s="1">
         <v>2022</v>
@@ -66135,7 +66141,7 @@
         <v>1</v>
       </c>
       <c r="F416" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>87</v>
@@ -66155,13 +66161,13 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D417" s="1">
         <v>2022</v>
@@ -66170,7 +66176,7 @@
         <v>1</v>
       </c>
       <c r="F417" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G417" s="3" t="s">
         <v>87</v>
@@ -66190,13 +66196,13 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D418" s="1">
         <v>2022</v>
@@ -66205,7 +66211,7 @@
         <v>1</v>
       </c>
       <c r="F418" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G418" s="3" t="s">
         <v>87</v>
@@ -66225,13 +66231,13 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D419" s="1">
         <v>2022</v>
@@ -66240,7 +66246,7 @@
         <v>1</v>
       </c>
       <c r="F419" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G419" s="3" t="s">
         <v>87</v>
@@ -66266,7 +66272,7 @@
         <v>7</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D420" s="1">
         <v>2022</v>
@@ -66275,7 +66281,7 @@
         <v>1</v>
       </c>
       <c r="F420" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G420" s="3" t="s">
         <v>87</v>
@@ -66295,13 +66301,13 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D421" s="1">
         <v>2022</v>
@@ -66310,7 +66316,7 @@
         <v>1</v>
       </c>
       <c r="F421" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G421" s="3" t="s">
         <v>87</v>
@@ -66330,13 +66336,13 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D422" s="1">
         <v>2022</v>
@@ -66345,7 +66351,7 @@
         <v>1</v>
       </c>
       <c r="F422" s="1">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>87</v>
@@ -66365,22 +66371,22 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="D423" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E423" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F423" s="1">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="G423" s="3" t="s">
         <v>87</v>
@@ -66409,13 +66415,13 @@
         <v>97</v>
       </c>
       <c r="D424" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E424" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F424" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G424" s="3" t="s">
         <v>87</v>
@@ -66435,22 +66441,22 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D425" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E425" s="1">
+        <v>1</v>
+      </c>
+      <c r="F425" s="1">
         <v>2</v>
-      </c>
-      <c r="F425" s="1">
-        <v>3</v>
       </c>
       <c r="G425" s="3" t="s">
         <v>87</v>
@@ -66470,22 +66476,22 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D426" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E426" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F426" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>87</v>
@@ -66505,22 +66511,22 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D427" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E427" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F427" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G427" s="3" t="s">
         <v>87</v>
@@ -66540,22 +66546,22 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D428" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E428" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F428" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G428" s="3" t="s">
         <v>87</v>
@@ -66575,22 +66581,22 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D429" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E429" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F429" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>87</v>
@@ -66610,22 +66616,22 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D430" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E430" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F430" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G430" s="3" t="s">
         <v>87</v>
@@ -66645,10 +66651,10 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>97</v>
@@ -66660,7 +66666,7 @@
         <v>2</v>
       </c>
       <c r="F431" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G431" s="3" t="s">
         <v>87</v>
@@ -66680,10 +66686,10 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>97</v>
@@ -66695,7 +66701,7 @@
         <v>2</v>
       </c>
       <c r="F432" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>87</v>
@@ -66715,10 +66721,10 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>97</v>
@@ -66730,7 +66736,7 @@
         <v>2</v>
       </c>
       <c r="F433" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G433" s="3" t="s">
         <v>87</v>
@@ -66750,25 +66756,25 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D434" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E434" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F434" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H434" s="1">
         <v>1</v>
@@ -66785,25 +66791,25 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D435" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E435" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F435" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H435" s="1">
         <v>1</v>
@@ -66820,25 +66826,25 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D436" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E436" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F436" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H436" s="1">
         <v>1</v>
@@ -66855,25 +66861,25 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B437" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D437" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E437" s="1">
         <v>2</v>
       </c>
-      <c r="C437" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D437" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E437" s="1">
-        <v>1</v>
-      </c>
       <c r="F437" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H437" s="1">
         <v>1</v>
@@ -66890,25 +66896,25 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D438" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E438" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F438" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H438" s="1">
         <v>1</v>
@@ -66925,25 +66931,25 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D439" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E439" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F439" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H439" s="1">
         <v>1</v>
@@ -66960,25 +66966,25 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D440" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E440" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F440" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H440" s="1">
         <v>1</v>
@@ -66995,25 +67001,25 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D441" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E441" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F441" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H441" s="1">
         <v>1</v>
@@ -67030,25 +67036,25 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D442" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E442" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F442" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H442" s="1">
         <v>1</v>
@@ -67065,25 +67071,25 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D443" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E443" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F443" s="1">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H443" s="1">
         <v>1</v>
@@ -67100,25 +67106,25 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D444" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E444" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F444" s="1">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H444" s="1">
         <v>1</v>
@@ -67135,25 +67141,25 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D445" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E445" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F445" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H445" s="1">
         <v>1</v>
@@ -67170,25 +67176,25 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D446" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E446" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F446" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H446" s="1">
         <v>1</v>
@@ -67205,25 +67211,25 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D447" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E447" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F447" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H447" s="1">
         <v>1</v>
@@ -67240,25 +67246,25 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D448" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E448" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F448" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H448" s="1">
         <v>1</v>
@@ -67275,13 +67281,13 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D449" s="1">
         <v>2022</v>
@@ -67290,10 +67296,10 @@
         <v>1</v>
       </c>
       <c r="F449" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H449" s="1">
         <v>1</v>
@@ -67310,13 +67316,13 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D450">
         <v>2022</v>
@@ -67325,10 +67331,10 @@
         <v>1</v>
       </c>
       <c r="F450">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H450">
         <v>1</v>
@@ -67351,7 +67357,7 @@
         <v>5</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D451">
         <v>2022</v>
@@ -67360,10 +67366,10 @@
         <v>1</v>
       </c>
       <c r="F451">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H451">
         <v>1</v>
@@ -67380,25 +67386,25 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D452">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E452">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F452">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H452">
         <v>1</v>
@@ -67415,25 +67421,25 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D453">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E453">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F453">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H453">
         <v>1</v>
@@ -67450,25 +67456,25 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D454">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E454">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F454">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H454">
         <v>1</v>
@@ -67485,25 +67491,25 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D455">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E455">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F455">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H455">
         <v>1</v>
@@ -67520,25 +67526,25 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D456">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F456">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H456">
         <v>1</v>
@@ -67555,25 +67561,25 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D457">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E457">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F457">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H457">
         <v>1</v>
@@ -67590,25 +67596,25 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D458">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E458">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F458">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H458">
         <v>1</v>
@@ -67625,25 +67631,25 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D459">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E459">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F459">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H459">
         <v>1</v>
@@ -67660,13 +67666,13 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D460">
         <v>2023</v>
@@ -67675,10 +67681,10 @@
         <v>2</v>
       </c>
       <c r="F460">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H460">
         <v>1</v>
@@ -67695,13 +67701,13 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D461">
         <v>2023</v>
@@ -67710,10 +67716,10 @@
         <v>2</v>
       </c>
       <c r="F461">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H461">
         <v>1</v>
@@ -67730,34 +67736,34 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D462">
         <v>2023</v>
       </c>
       <c r="E462">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F462">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I462">
         <v>0</v>
       </c>
       <c r="J462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K462">
         <v>0</v>
@@ -67765,34 +67771,34 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D463">
         <v>2023</v>
       </c>
       <c r="E463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F463">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I463">
         <v>0</v>
       </c>
       <c r="J463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K463">
         <v>0</v>
@@ -67800,34 +67806,34 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D464">
         <v>2023</v>
       </c>
       <c r="E464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F464">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I464">
         <v>0</v>
       </c>
       <c r="J464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K464">
         <v>0</v>
@@ -67835,34 +67841,34 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D465">
         <v>2023</v>
       </c>
       <c r="E465">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F465">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I465">
         <v>0</v>
       </c>
       <c r="J465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K465">
         <v>0</v>
@@ -67870,34 +67876,34 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D466">
         <v>2023</v>
       </c>
       <c r="E466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F466">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I466">
         <v>0</v>
       </c>
       <c r="J466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K466">
         <v>0</v>
@@ -67911,28 +67917,28 @@
         <v>3</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D467">
         <v>2023</v>
       </c>
       <c r="E467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F467">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I467">
         <v>0</v>
       </c>
       <c r="J467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K467">
         <v>0</v>
@@ -67940,34 +67946,34 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D468">
         <v>2023</v>
       </c>
       <c r="E468">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F468">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I468">
         <v>0</v>
       </c>
       <c r="J468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K468">
         <v>0</v>
@@ -67975,34 +67981,34 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D469">
         <v>2023</v>
       </c>
       <c r="E469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F469">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I469">
         <v>0</v>
       </c>
       <c r="J469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K469">
         <v>0</v>
@@ -68010,34 +68016,34 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D470">
         <v>2023</v>
       </c>
       <c r="E470">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F470">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I470">
         <v>0</v>
       </c>
       <c r="J470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K470">
         <v>0</v>
@@ -68045,34 +68051,34 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D471">
         <v>2023</v>
       </c>
       <c r="E471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F471">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I471">
         <v>0</v>
       </c>
       <c r="J471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K471">
         <v>0</v>
@@ -68080,34 +68086,34 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D472">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E472">
         <v>1</v>
       </c>
       <c r="F472">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I472">
         <v>0</v>
       </c>
       <c r="J472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K472">
         <v>0</v>
@@ -68115,358 +68121,378 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D473">
+        <v>2022</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
+      <c r="F473">
+        <v>2</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H473">
+        <v>1</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>114</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D474">
+        <v>2022</v>
+      </c>
+      <c r="E474">
+        <v>1</v>
+      </c>
+      <c r="F474">
+        <v>3</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H474">
+        <v>1</v>
+      </c>
+      <c r="I474">
+        <v>0</v>
+      </c>
+      <c r="J474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>104</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D475">
+        <v>2022</v>
+      </c>
+      <c r="E475">
+        <v>1</v>
+      </c>
+      <c r="F475">
+        <v>4</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H475">
+        <v>1</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+      <c r="K475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>105</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D476">
+        <v>2022</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
+      <c r="F476">
+        <v>5</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H476">
+        <v>1</v>
+      </c>
+      <c r="I476">
+        <v>0</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>121</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D477">
+        <v>2022</v>
+      </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
+      <c r="F477">
+        <v>6</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H477">
+        <v>1</v>
+      </c>
+      <c r="I477">
+        <v>0</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>102</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D478">
+        <v>2022</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
+      <c r="F478">
+        <v>7</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H478">
+        <v>1</v>
+      </c>
+      <c r="I478">
+        <v>0</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>114</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D479">
         <v>2023</v>
       </c>
-      <c r="E473">
-        <v>1</v>
-      </c>
-      <c r="F473">
+      <c r="E479">
+        <v>2</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H479">
+        <v>1</v>
+      </c>
+      <c r="I479">
+        <v>0</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>122</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D480">
+        <v>2023</v>
+      </c>
+      <c r="E480">
+        <v>2</v>
+      </c>
+      <c r="F480">
+        <v>2</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H480">
+        <v>1</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>105</v>
+      </c>
+      <c r="B481" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G473" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H473">
-        <v>0</v>
-      </c>
-      <c r="I473">
-        <v>0</v>
-      </c>
-      <c r="J473">
-        <v>1</v>
-      </c>
-      <c r="K473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A474" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B474" s="3"/>
-      <c r="C474" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D474">
-        <v>2024</v>
-      </c>
-      <c r="E474">
-        <v>1</v>
-      </c>
-      <c r="F474">
-        <v>1</v>
-      </c>
-      <c r="G474" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H474">
-        <v>0</v>
-      </c>
-      <c r="I474">
-        <v>0</v>
-      </c>
-      <c r="J474">
-        <v>0</v>
-      </c>
-      <c r="K474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A475" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B475" s="3"/>
-      <c r="C475" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D475">
-        <v>2024</v>
-      </c>
-      <c r="E475">
-        <v>1</v>
-      </c>
-      <c r="F475">
+      <c r="C481" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D481">
+        <v>2023</v>
+      </c>
+      <c r="E481">
         <v>2</v>
       </c>
-      <c r="G475" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H475">
-        <v>0</v>
-      </c>
-      <c r="I475">
-        <v>0</v>
-      </c>
-      <c r="J475">
-        <v>0</v>
-      </c>
-      <c r="K475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A476" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B476" s="3"/>
-      <c r="C476" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D476">
-        <v>2024</v>
-      </c>
-      <c r="E476">
-        <v>1</v>
-      </c>
-      <c r="F476">
+      <c r="F481">
         <v>3</v>
       </c>
-      <c r="G476" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H476">
-        <v>0</v>
-      </c>
-      <c r="I476">
-        <v>0</v>
-      </c>
-      <c r="J476">
-        <v>0</v>
-      </c>
-      <c r="K476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A477" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B477" s="3"/>
-      <c r="C477" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D477">
-        <v>2024</v>
-      </c>
-      <c r="E477">
-        <v>1</v>
-      </c>
-      <c r="F477">
+      <c r="G481" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H481">
+        <v>1</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>104</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D482">
+        <v>2023</v>
+      </c>
+      <c r="E482">
+        <v>2</v>
+      </c>
+      <c r="F482">
         <v>4</v>
       </c>
-      <c r="G477" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H477">
-        <v>0</v>
-      </c>
-      <c r="I477">
-        <v>0</v>
-      </c>
-      <c r="J477">
-        <v>0</v>
-      </c>
-      <c r="K477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A478" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B478" s="3"/>
-      <c r="C478" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D478">
-        <v>2024</v>
-      </c>
-      <c r="E478">
-        <v>1</v>
-      </c>
-      <c r="F478">
+      <c r="G482" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H482">
+        <v>1</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>161</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D483">
+        <v>2023</v>
+      </c>
+      <c r="E483">
+        <v>2</v>
+      </c>
+      <c r="F483">
         <v>5</v>
       </c>
-      <c r="G478" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H478">
-        <v>0</v>
-      </c>
-      <c r="I478">
-        <v>0</v>
-      </c>
-      <c r="J478">
-        <v>0</v>
-      </c>
-      <c r="K478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A479" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B479" s="3"/>
-      <c r="C479" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D479">
-        <v>2024</v>
-      </c>
-      <c r="E479">
-        <v>1</v>
-      </c>
-      <c r="F479">
-        <v>6</v>
-      </c>
-      <c r="G479" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H479">
-        <v>0</v>
-      </c>
-      <c r="I479">
-        <v>0</v>
-      </c>
-      <c r="J479">
-        <v>0</v>
-      </c>
-      <c r="K479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A480" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B480" s="3"/>
-      <c r="C480" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D480">
-        <v>2024</v>
-      </c>
-      <c r="E480">
-        <v>1</v>
-      </c>
-      <c r="F480">
-        <v>7</v>
-      </c>
-      <c r="G480" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H480">
-        <v>0</v>
-      </c>
-      <c r="I480">
-        <v>0</v>
-      </c>
-      <c r="J480">
-        <v>0</v>
-      </c>
-      <c r="K480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A481" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B481" s="3"/>
-      <c r="C481" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D481">
-        <v>2024</v>
-      </c>
-      <c r="E481">
-        <v>1</v>
-      </c>
-      <c r="F481">
-        <v>8</v>
-      </c>
-      <c r="G481" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H481">
-        <v>0</v>
-      </c>
-      <c r="I481">
-        <v>0</v>
-      </c>
-      <c r="J481">
-        <v>0</v>
-      </c>
-      <c r="K481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A482" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B482" s="3"/>
-      <c r="C482" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D482">
-        <v>2024</v>
-      </c>
-      <c r="E482">
-        <v>1</v>
-      </c>
-      <c r="F482">
-        <v>9</v>
-      </c>
-      <c r="G482" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H482">
-        <v>0</v>
-      </c>
-      <c r="I482">
-        <v>0</v>
-      </c>
-      <c r="J482">
-        <v>0</v>
-      </c>
-      <c r="K482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A483" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B483" s="3"/>
-      <c r="C483" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D483">
-        <v>2024</v>
-      </c>
-      <c r="E483">
-        <v>1</v>
-      </c>
-      <c r="F483">
-        <v>10</v>
-      </c>
       <c r="G483" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I483">
         <v>0</v>
@@ -68480,28 +68506,28 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D484">
         <v>2023</v>
       </c>
       <c r="E484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F484">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I484">
         <v>0</v>
@@ -68521,22 +68547,22 @@
         <v>56</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D485">
         <v>2023</v>
       </c>
       <c r="E485">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F485">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I485">
         <v>0</v>
@@ -68550,28 +68576,28 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D486">
         <v>2023</v>
       </c>
       <c r="E486">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F486">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I486">
         <v>0</v>
@@ -68591,22 +68617,22 @@
         <v>15</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D487">
         <v>2023</v>
       </c>
       <c r="E487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F487">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G487" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I487">
         <v>0</v>
@@ -68620,28 +68646,28 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D488">
         <v>2023</v>
       </c>
       <c r="E488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F488">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I488">
         <v>0</v>
@@ -68655,310 +68681,1700 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489">
+        <v>114</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D489">
+        <v>2024</v>
+      </c>
+      <c r="E489">
+        <v>3</v>
+      </c>
+      <c r="F489">
+        <v>1</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H489">
+        <v>1</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>105</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D490">
+        <v>2024</v>
+      </c>
+      <c r="E490">
+        <v>3</v>
+      </c>
+      <c r="F490">
+        <v>2</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H490">
+        <v>1</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>124</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D491">
+        <v>2024</v>
+      </c>
+      <c r="E491">
+        <v>3</v>
+      </c>
+      <c r="F491">
+        <v>3</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H491">
+        <v>1</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>102</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D492">
+        <v>2024</v>
+      </c>
+      <c r="E492">
+        <v>3</v>
+      </c>
+      <c r="F492">
+        <v>4</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H492">
+        <v>1</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>172</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D493">
+        <v>2024</v>
+      </c>
+      <c r="E493">
+        <v>3</v>
+      </c>
+      <c r="F493">
+        <v>5</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H493">
+        <v>1</v>
+      </c>
+      <c r="I493">
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>161</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D494">
+        <v>2024</v>
+      </c>
+      <c r="E494">
+        <v>3</v>
+      </c>
+      <c r="F494">
+        <v>6</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H494">
+        <v>1</v>
+      </c>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>104</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D495">
+        <v>2024</v>
+      </c>
+      <c r="E495">
+        <v>3</v>
+      </c>
+      <c r="F495">
+        <v>7</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H495">
+        <v>1</v>
+      </c>
+      <c r="I495">
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>125</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D496">
+        <v>2024</v>
+      </c>
+      <c r="E496">
+        <v>3</v>
+      </c>
+      <c r="F496">
+        <v>8</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H496">
+        <v>1</v>
+      </c>
+      <c r="I496">
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>162</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D497">
+        <v>2024</v>
+      </c>
+      <c r="E497">
+        <v>3</v>
+      </c>
+      <c r="F497">
+        <v>9</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H497">
+        <v>1</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A498">
         <v>164</v>
       </c>
-      <c r="B489" s="3" t="s">
+      <c r="B498" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C489" s="3" t="s">
+      <c r="C498" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D498">
+        <v>2024</v>
+      </c>
+      <c r="E498">
+        <v>3</v>
+      </c>
+      <c r="F498">
+        <v>10</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H498">
+        <v>1</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>162</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D499">
+        <v>2023</v>
+      </c>
+      <c r="E499">
+        <v>1</v>
+      </c>
+      <c r="F499">
+        <v>1</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H499">
+        <v>0</v>
+      </c>
+      <c r="I499">
+        <v>0</v>
+      </c>
+      <c r="J499">
+        <v>1</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>114</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D500">
+        <v>2023</v>
+      </c>
+      <c r="E500">
+        <v>1</v>
+      </c>
+      <c r="F500">
+        <v>2</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H500">
+        <v>0</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <v>1</v>
+      </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>124</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D501">
+        <v>2023</v>
+      </c>
+      <c r="E501">
+        <v>1</v>
+      </c>
+      <c r="F501">
+        <v>3</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>1</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>102</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D502">
+        <v>2023</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502">
+        <v>4</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H502">
+        <v>0</v>
+      </c>
+      <c r="I502">
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <v>1</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>104</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D503">
+        <v>2023</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="F503">
+        <v>5</v>
+      </c>
+      <c r="G503" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H503">
+        <v>0</v>
+      </c>
+      <c r="I503">
+        <v>0</v>
+      </c>
+      <c r="J503">
+        <v>1</v>
+      </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>106</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D504">
+        <v>2023</v>
+      </c>
+      <c r="E504">
+        <v>1</v>
+      </c>
+      <c r="F504">
+        <v>6</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H504">
+        <v>0</v>
+      </c>
+      <c r="I504">
+        <v>0</v>
+      </c>
+      <c r="J504">
+        <v>1</v>
+      </c>
+      <c r="K504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>164</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D505">
+        <v>2023</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
+      <c r="F505">
+        <v>7</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H505">
+        <v>0</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>1</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>163</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D506">
+        <v>2023</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+      <c r="F506">
+        <v>8</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>1</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>180</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D507">
+        <v>2023</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507">
+        <v>9</v>
+      </c>
+      <c r="G507" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H507">
+        <v>0</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507">
+        <v>1</v>
+      </c>
+      <c r="K507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>123</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D508">
+        <v>2023</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="F508">
+        <v>10</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H508">
+        <v>0</v>
+      </c>
+      <c r="I508">
+        <v>0</v>
+      </c>
+      <c r="J508">
+        <v>1</v>
+      </c>
+      <c r="K508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>167</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D509">
+        <v>2023</v>
+      </c>
+      <c r="E509">
+        <v>1</v>
+      </c>
+      <c r="F509">
+        <v>11</v>
+      </c>
+      <c r="G509" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H509">
+        <v>0</v>
+      </c>
+      <c r="I509">
+        <v>0</v>
+      </c>
+      <c r="J509">
+        <v>1</v>
+      </c>
+      <c r="K509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>181</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D510">
+        <v>2023</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+      <c r="F510">
+        <v>12</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H510">
+        <v>0</v>
+      </c>
+      <c r="I510">
+        <v>0</v>
+      </c>
+      <c r="J510">
+        <v>1</v>
+      </c>
+      <c r="K510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A511" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B511" s="3"/>
+      <c r="C511" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D511">
+        <v>2024</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+      <c r="G511" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
+      </c>
+      <c r="I511">
+        <v>0</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A512" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B512" s="3"/>
+      <c r="C512" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D512">
+        <v>2024</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512">
+        <v>2</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H512">
+        <v>0</v>
+      </c>
+      <c r="I512">
+        <v>0</v>
+      </c>
+      <c r="J512">
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A513" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B513" s="3"/>
+      <c r="C513" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D513">
+        <v>2024</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>3</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H513">
+        <v>0</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A514" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B514" s="3"/>
+      <c r="C514" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D514">
+        <v>2024</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514">
+        <v>4</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H514">
+        <v>0</v>
+      </c>
+      <c r="I514">
+        <v>0</v>
+      </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A515" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B515" s="3"/>
+      <c r="C515" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D515">
+        <v>2024</v>
+      </c>
+      <c r="E515">
+        <v>1</v>
+      </c>
+      <c r="F515">
+        <v>5</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H515">
+        <v>0</v>
+      </c>
+      <c r="I515">
+        <v>0</v>
+      </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
+      <c r="K515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A516" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B516" s="3"/>
+      <c r="C516" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D516">
+        <v>2024</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+      <c r="F516">
+        <v>6</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516">
+        <v>0</v>
+      </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
+      <c r="K516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A517" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B517" s="3"/>
+      <c r="C517" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D517">
+        <v>2024</v>
+      </c>
+      <c r="E517">
+        <v>1</v>
+      </c>
+      <c r="F517">
+        <v>7</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>0</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A518" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B518" s="3"/>
+      <c r="C518" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D518">
+        <v>2024</v>
+      </c>
+      <c r="E518">
+        <v>1</v>
+      </c>
+      <c r="F518">
+        <v>8</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H518">
+        <v>0</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A519" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B519" s="3"/>
+      <c r="C519" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D519">
+        <v>2024</v>
+      </c>
+      <c r="E519">
+        <v>1</v>
+      </c>
+      <c r="F519">
+        <v>9</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H519">
+        <v>0</v>
+      </c>
+      <c r="I519">
+        <v>0</v>
+      </c>
+      <c r="J519">
+        <v>0</v>
+      </c>
+      <c r="K519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A520" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B520" s="3"/>
+      <c r="C520" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D520">
+        <v>2024</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520">
+        <v>10</v>
+      </c>
+      <c r="G520" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H520">
+        <v>0</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+      <c r="J520">
+        <v>0</v>
+      </c>
+      <c r="K520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>102</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C521" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D489">
+      <c r="D521">
         <v>2023</v>
       </c>
-      <c r="E489">
-        <v>1</v>
-      </c>
-      <c r="F489">
+      <c r="E521">
+        <v>1</v>
+      </c>
+      <c r="F521">
+        <v>2</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>162</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D522">
+        <v>2023</v>
+      </c>
+      <c r="E522">
+        <v>1</v>
+      </c>
+      <c r="F522">
+        <v>5</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H522">
+        <v>0</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>163</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D523">
+        <v>2023</v>
+      </c>
+      <c r="E523">
+        <v>1</v>
+      </c>
+      <c r="F523">
+        <v>7</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H523">
+        <v>0</v>
+      </c>
+      <c r="I523">
+        <v>0</v>
+      </c>
+      <c r="J523">
+        <v>0</v>
+      </c>
+      <c r="K523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>124</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D524">
+        <v>2023</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="F524">
+        <v>10</v>
+      </c>
+      <c r="G524" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+      <c r="I524">
+        <v>0</v>
+      </c>
+      <c r="J524">
+        <v>0</v>
+      </c>
+      <c r="K524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>104</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D525">
+        <v>2023</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="F525">
+        <v>11</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H525">
+        <v>0</v>
+      </c>
+      <c r="I525">
+        <v>0</v>
+      </c>
+      <c r="J525">
+        <v>0</v>
+      </c>
+      <c r="K525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>164</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D526">
+        <v>2023</v>
+      </c>
+      <c r="E526">
+        <v>1</v>
+      </c>
+      <c r="F526">
         <v>12</v>
       </c>
-      <c r="G489" s="3" t="s">
+      <c r="G526" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H489">
-        <v>0</v>
-      </c>
-      <c r="I489">
-        <v>0</v>
-      </c>
-      <c r="J489">
-        <v>0</v>
-      </c>
-      <c r="K489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B490" s="3"/>
-      <c r="C490" s="3"/>
-      <c r="G490" s="3"/>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B491" s="3"/>
-      <c r="C491" s="3"/>
-      <c r="G491" s="3"/>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B492" s="3"/>
-      <c r="C492" s="3"/>
-      <c r="G492" s="3"/>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B493" s="3"/>
-      <c r="C493" s="3"/>
-      <c r="G493" s="3"/>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B494" s="3"/>
-      <c r="C494" s="3"/>
-      <c r="G494" s="3"/>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
-      <c r="G495" s="3"/>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B496" s="3"/>
-      <c r="C496" s="3"/>
-      <c r="G496" s="3"/>
-    </row>
-    <row r="497" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B497" s="3"/>
-      <c r="C497" s="3"/>
-      <c r="G497" s="3"/>
-    </row>
-    <row r="498" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B498" s="3"/>
-      <c r="C498" s="3"/>
-      <c r="G498" s="3"/>
-    </row>
-    <row r="499" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B499" s="3"/>
-      <c r="C499" s="3"/>
-      <c r="G499" s="3"/>
-    </row>
-    <row r="500" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B500" s="3"/>
-      <c r="C500" s="3"/>
-      <c r="G500" s="3"/>
-    </row>
-    <row r="501" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B501" s="3"/>
-      <c r="C501" s="3"/>
-      <c r="G501" s="3"/>
-    </row>
-    <row r="502" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B502" s="3"/>
-      <c r="C502" s="3"/>
-      <c r="G502" s="3"/>
-    </row>
-    <row r="503" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B503" s="3"/>
-      <c r="C503" s="3"/>
-      <c r="G503" s="3"/>
-    </row>
-    <row r="504" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B504" s="3"/>
-      <c r="C504" s="3"/>
-      <c r="G504" s="3"/>
-    </row>
-    <row r="505" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B505" s="3"/>
-      <c r="C505" s="3"/>
-      <c r="G505" s="3"/>
-    </row>
-    <row r="506" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B506" s="3"/>
-      <c r="C506" s="3"/>
-      <c r="G506" s="3"/>
-    </row>
-    <row r="507" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B507" s="3"/>
-      <c r="C507" s="3"/>
-      <c r="G507" s="3"/>
-    </row>
-    <row r="508" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B508" s="3"/>
-      <c r="C508" s="3"/>
-      <c r="G508" s="3"/>
-    </row>
-    <row r="509" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B509" s="3"/>
-      <c r="C509" s="3"/>
-      <c r="G509" s="3"/>
-    </row>
-    <row r="510" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B510" s="3"/>
-      <c r="C510" s="3"/>
-      <c r="G510" s="3"/>
-    </row>
-    <row r="511" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B511" s="3"/>
-      <c r="C511" s="3"/>
-      <c r="G511" s="3"/>
-    </row>
-    <row r="512" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B512" s="3"/>
-      <c r="C512" s="3"/>
-      <c r="G512" s="3"/>
-    </row>
-    <row r="513" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B513" s="3"/>
-      <c r="C513" s="3"/>
-      <c r="G513" s="3"/>
-    </row>
-    <row r="514" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B514" s="3"/>
-      <c r="C514" s="3"/>
-      <c r="G514" s="3"/>
-    </row>
-    <row r="515" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B515" s="3"/>
-      <c r="C515" s="3"/>
-      <c r="G515" s="3"/>
-    </row>
-    <row r="516" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B516" s="3"/>
-      <c r="C516" s="3"/>
-      <c r="G516" s="3"/>
-    </row>
-    <row r="517" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B517" s="3"/>
-      <c r="C517" s="3"/>
-      <c r="G517" s="3"/>
-    </row>
-    <row r="518" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B518" s="3"/>
-      <c r="C518" s="3"/>
-      <c r="G518" s="3"/>
-    </row>
-    <row r="519" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B519" s="3"/>
-      <c r="C519" s="3"/>
-      <c r="G519" s="3"/>
-    </row>
-    <row r="520" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B520" s="3"/>
-      <c r="C520" s="3"/>
-      <c r="G520" s="3"/>
-    </row>
-    <row r="521" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B521" s="3"/>
-      <c r="C521" s="3"/>
-      <c r="G521" s="3"/>
-    </row>
-    <row r="522" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B522" s="3"/>
-      <c r="C522" s="3"/>
-      <c r="G522" s="3"/>
-    </row>
-    <row r="523" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B523" s="3"/>
-      <c r="C523" s="3"/>
-      <c r="G523" s="3"/>
-    </row>
-    <row r="524" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B524" s="3"/>
-      <c r="C524" s="3"/>
-      <c r="G524" s="3"/>
-    </row>
-    <row r="525" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B525" s="3"/>
-      <c r="C525" s="3"/>
-      <c r="G525" s="3"/>
-    </row>
-    <row r="526" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B526" s="3"/>
-      <c r="C526" s="3"/>
-      <c r="G526" s="3"/>
-    </row>
-    <row r="527" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B527" s="3"/>
-      <c r="C527" s="3"/>
-      <c r="G527" s="3"/>
-    </row>
-    <row r="528" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B528" s="3"/>
-      <c r="C528" s="3"/>
-      <c r="G528" s="3"/>
-    </row>
-    <row r="529" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B529" s="3"/>
-      <c r="C529" s="3"/>
-      <c r="G529" s="3"/>
-    </row>
-    <row r="530" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B530" s="3"/>
-      <c r="C530" s="3"/>
-      <c r="G530" s="3"/>
-    </row>
-    <row r="531" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B531" s="3"/>
-      <c r="C531" s="3"/>
-      <c r="G531" s="3"/>
-    </row>
-    <row r="532" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B532" s="3"/>
-      <c r="C532" s="3"/>
-      <c r="G532" s="3"/>
-    </row>
-    <row r="533" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B533" s="3"/>
-      <c r="C533" s="3"/>
-      <c r="G533" s="3"/>
-    </row>
-    <row r="534" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B534" s="3"/>
-      <c r="C534" s="3"/>
-      <c r="G534" s="3"/>
-    </row>
-    <row r="535" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B535" s="3"/>
-      <c r="C535" s="3"/>
-      <c r="G535" s="3"/>
-    </row>
-    <row r="536" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B536" s="3"/>
-      <c r="C536" s="3"/>
-      <c r="G536" s="3"/>
-    </row>
-    <row r="537" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H526">
+        <v>0</v>
+      </c>
+      <c r="I526">
+        <v>0</v>
+      </c>
+      <c r="J526">
+        <v>0</v>
+      </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>102</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D527">
+        <v>2024</v>
+      </c>
+      <c r="E527">
+        <v>1</v>
+      </c>
+      <c r="F527">
+        <v>1</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H527">
+        <v>1</v>
+      </c>
+      <c r="I527">
+        <v>0</v>
+      </c>
+      <c r="J527">
+        <v>0</v>
+      </c>
+      <c r="K527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>105</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D528">
+        <v>2024</v>
+      </c>
+      <c r="E528">
+        <v>1</v>
+      </c>
+      <c r="F528">
+        <v>2</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H528">
+        <v>1</v>
+      </c>
+      <c r="I528">
+        <v>0</v>
+      </c>
+      <c r="J528">
+        <v>0</v>
+      </c>
+      <c r="K528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>106</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D529">
+        <v>2024</v>
+      </c>
+      <c r="E529">
+        <v>1</v>
+      </c>
+      <c r="F529">
+        <v>3</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H529">
+        <v>1</v>
+      </c>
+      <c r="I529">
+        <v>0</v>
+      </c>
+      <c r="J529">
+        <v>0</v>
+      </c>
+      <c r="K529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>124</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D530">
+        <v>2024</v>
+      </c>
+      <c r="E530">
+        <v>1</v>
+      </c>
+      <c r="F530">
+        <v>4</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H530">
+        <v>1</v>
+      </c>
+      <c r="I530">
+        <v>0</v>
+      </c>
+      <c r="J530">
+        <v>0</v>
+      </c>
+      <c r="K530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>114</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D531">
+        <v>2024</v>
+      </c>
+      <c r="E531">
+        <v>1</v>
+      </c>
+      <c r="F531">
+        <v>1</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H531">
+        <v>1</v>
+      </c>
+      <c r="I531">
+        <v>0</v>
+      </c>
+      <c r="J531">
+        <v>0</v>
+      </c>
+      <c r="K531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>102</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D532">
+        <v>2024</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+      <c r="F532">
+        <v>2</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H532">
+        <v>1</v>
+      </c>
+      <c r="I532">
+        <v>0</v>
+      </c>
+      <c r="J532">
+        <v>0</v>
+      </c>
+      <c r="K532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>125</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D533">
+        <v>2024</v>
+      </c>
+      <c r="E533">
+        <v>1</v>
+      </c>
+      <c r="F533">
+        <v>3</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H533">
+        <v>1</v>
+      </c>
+      <c r="I533">
+        <v>0</v>
+      </c>
+      <c r="J533">
+        <v>0</v>
+      </c>
+      <c r="K533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>105</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D534">
+        <v>2024</v>
+      </c>
+      <c r="E534">
+        <v>1</v>
+      </c>
+      <c r="F534">
+        <v>4</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H534">
+        <v>1</v>
+      </c>
+      <c r="I534">
+        <v>0</v>
+      </c>
+      <c r="J534">
+        <v>0</v>
+      </c>
+      <c r="K534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>164</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D535">
+        <v>2024</v>
+      </c>
+      <c r="E535">
+        <v>1</v>
+      </c>
+      <c r="F535">
+        <v>5</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H535">
+        <v>1</v>
+      </c>
+      <c r="I535">
+        <v>0</v>
+      </c>
+      <c r="J535">
+        <v>0</v>
+      </c>
+      <c r="K535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>159</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D536">
+        <v>2024</v>
+      </c>
+      <c r="E536">
+        <v>1</v>
+      </c>
+      <c r="F536">
+        <v>6</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H536">
+        <v>1</v>
+      </c>
+      <c r="I536">
+        <v>0</v>
+      </c>
+      <c r="J536">
+        <v>0</v>
+      </c>
+      <c r="K536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
       <c r="G537" s="3"/>
     </row>
-    <row r="538" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
       <c r="G538" s="3"/>
     </row>
-    <row r="539" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
       <c r="G539" s="3"/>
     </row>
-    <row r="540" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
       <c r="G540" s="3"/>
     </row>
-    <row r="541" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
       <c r="G541" s="3"/>
     </row>
-    <row r="542" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
       <c r="G542" s="3"/>
     </row>
-    <row r="543" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
       <c r="G543" s="3"/>
     </row>
-    <row r="544" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
       <c r="G544" s="3"/>
